--- a/data/pca/factorExposure/factorExposure_2019-01-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1089939304348514</v>
+        <v>0.06865798389192752</v>
       </c>
       <c r="C2">
-        <v>0.003846250602813543</v>
+        <v>0.0360978037655103</v>
       </c>
       <c r="D2">
-        <v>0.07655996535093304</v>
+        <v>0.01728998792504836</v>
       </c>
       <c r="E2">
-        <v>0.01650146872881362</v>
+        <v>0.04294489500721767</v>
       </c>
       <c r="F2">
-        <v>-0.1253886541804661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1340561307330624</v>
+      </c>
+      <c r="G2">
+        <v>-0.06617508812817349</v>
+      </c>
+      <c r="H2">
+        <v>0.05242386369403766</v>
+      </c>
+      <c r="I2">
+        <v>0.1068868445856604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2162385059698735</v>
+        <v>0.1602550645786935</v>
       </c>
       <c r="C3">
-        <v>-0.1484562187650302</v>
+        <v>0.1102707090627335</v>
       </c>
       <c r="D3">
-        <v>0.0748255432777882</v>
+        <v>-0.009690908957318554</v>
       </c>
       <c r="E3">
-        <v>-0.0102260322924293</v>
+        <v>-0.001048512558108647</v>
       </c>
       <c r="F3">
-        <v>-0.3328987766897698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.37777138181666</v>
+      </c>
+      <c r="G3">
+        <v>-0.2816347472973758</v>
+      </c>
+      <c r="H3">
+        <v>0.06231919820107456</v>
+      </c>
+      <c r="I3">
+        <v>0.3618812546170557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09559384875984477</v>
+        <v>0.07240487000435028</v>
       </c>
       <c r="C4">
-        <v>-0.03257134668127724</v>
+        <v>0.04987956002906198</v>
       </c>
       <c r="D4">
-        <v>0.05250372690225316</v>
+        <v>-0.01751299794549884</v>
       </c>
       <c r="E4">
-        <v>-0.02807492183340548</v>
+        <v>0.04129841587648624</v>
       </c>
       <c r="F4">
-        <v>-0.0662740236415281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07771070325831463</v>
+      </c>
+      <c r="G4">
+        <v>-0.03055470694122802</v>
+      </c>
+      <c r="H4">
+        <v>0.04878271526020944</v>
+      </c>
+      <c r="I4">
+        <v>0.05574956009181941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02169529920998532</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01082158125645163</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005327814415417303</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006255132305132502</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.008332727357661045</v>
+      </c>
+      <c r="G6">
+        <v>0.01457196545608389</v>
+      </c>
+      <c r="H6">
+        <v>-0.01832976213641085</v>
+      </c>
+      <c r="I6">
+        <v>-0.003437650388886397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04602172023136797</v>
+        <v>0.0352232391305068</v>
       </c>
       <c r="C7">
-        <v>-0.01245561743252727</v>
+        <v>0.01885961845386708</v>
       </c>
       <c r="D7">
-        <v>0.04530312245783748</v>
+        <v>-0.03692056498460123</v>
       </c>
       <c r="E7">
-        <v>0.00453371225397387</v>
+        <v>0.02881587529491608</v>
       </c>
       <c r="F7">
-        <v>-0.05682480065345889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0485129709658535</v>
+      </c>
+      <c r="G7">
+        <v>-0.0530817471585493</v>
+      </c>
+      <c r="H7">
+        <v>-0.004289513557345504</v>
+      </c>
+      <c r="I7">
+        <v>0.03620568675366102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05424675725346684</v>
+        <v>0.02819404739805765</v>
       </c>
       <c r="C8">
-        <v>-0.05344176190404649</v>
+        <v>0.05298477269153039</v>
       </c>
       <c r="D8">
-        <v>0.03323637505622992</v>
+        <v>-0.01443924059591827</v>
       </c>
       <c r="E8">
-        <v>-0.02614800824706472</v>
+        <v>0.02145514928273391</v>
       </c>
       <c r="F8">
-        <v>-0.06374106408113715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07001667581592297</v>
+      </c>
+      <c r="G8">
+        <v>-0.04835415618933175</v>
+      </c>
+      <c r="H8">
+        <v>0.03681474531881643</v>
+      </c>
+      <c r="I8">
+        <v>0.06427921829130538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08059094846536367</v>
+        <v>0.06089652770545907</v>
       </c>
       <c r="C9">
-        <v>-0.02611988617555984</v>
+        <v>0.04448916354800361</v>
       </c>
       <c r="D9">
-        <v>0.05293806448236397</v>
+        <v>-0.02056762719144602</v>
       </c>
       <c r="E9">
-        <v>-0.04157870643314879</v>
+        <v>0.03658878890380572</v>
       </c>
       <c r="F9">
-        <v>-0.0534338510877315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07791385997310206</v>
+      </c>
+      <c r="G9">
+        <v>-0.02862283955263319</v>
+      </c>
+      <c r="H9">
+        <v>0.0434926636785777</v>
+      </c>
+      <c r="I9">
+        <v>0.03082925880084965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02467037971663599</v>
+        <v>0.03593563593988024</v>
       </c>
       <c r="C10">
-        <v>0.1524199071001129</v>
+        <v>-0.1622641842733019</v>
       </c>
       <c r="D10">
-        <v>-0.06931668322818013</v>
+        <v>0.01539017492027395</v>
       </c>
       <c r="E10">
-        <v>0.03913107461282408</v>
+        <v>-0.03727581443169542</v>
       </c>
       <c r="F10">
-        <v>-0.0687971809701768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0674401024114839</v>
+      </c>
+      <c r="G10">
+        <v>-0.02975893932146887</v>
+      </c>
+      <c r="H10">
+        <v>0.0413479619230828</v>
+      </c>
+      <c r="I10">
+        <v>0.0496571744370824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06045146959600321</v>
+        <v>0.04991099945025449</v>
       </c>
       <c r="C11">
-        <v>-0.01668017596216956</v>
+        <v>0.03397604154390624</v>
       </c>
       <c r="D11">
-        <v>0.01225242667380648</v>
+        <v>0.004312689829295694</v>
       </c>
       <c r="E11">
-        <v>0.007598470057381458</v>
+        <v>0.01054651221567586</v>
       </c>
       <c r="F11">
-        <v>-0.04143133374349166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03688022694117755</v>
+      </c>
+      <c r="G11">
+        <v>-0.001236142525517639</v>
+      </c>
+      <c r="H11">
+        <v>0.01544018816775153</v>
+      </c>
+      <c r="I11">
+        <v>0.02822763462493183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04842925320235515</v>
+        <v>0.04451230533911132</v>
       </c>
       <c r="C12">
-        <v>-0.01956857966740292</v>
+        <v>0.03016882769884194</v>
       </c>
       <c r="D12">
-        <v>0.01074123453254864</v>
+        <v>-0.007039024528709467</v>
       </c>
       <c r="E12">
-        <v>-0.0103020395398079</v>
+        <v>0.01074402966131429</v>
       </c>
       <c r="F12">
-        <v>-0.02869254657569661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01363034604542957</v>
+      </c>
+      <c r="G12">
+        <v>-0.002905538340565038</v>
+      </c>
+      <c r="H12">
+        <v>0.004872636909328112</v>
+      </c>
+      <c r="I12">
+        <v>0.01620296200069581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06205563456987163</v>
+        <v>0.04406775959736511</v>
       </c>
       <c r="C13">
-        <v>-0.02655703951707112</v>
+        <v>0.03001461224797043</v>
       </c>
       <c r="D13">
-        <v>0.02927583233859414</v>
+        <v>0.01306255678112563</v>
       </c>
       <c r="E13">
-        <v>0.02909780908291806</v>
+        <v>0.01193856464216421</v>
       </c>
       <c r="F13">
-        <v>-0.1046050516018976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1021915292681183</v>
+      </c>
+      <c r="G13">
+        <v>-0.03647188392303864</v>
+      </c>
+      <c r="H13">
+        <v>0.02944228676014622</v>
+      </c>
+      <c r="I13">
+        <v>0.06207255509083762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03683850642270821</v>
+        <v>0.02726755503789189</v>
       </c>
       <c r="C14">
-        <v>-0.01864981536209484</v>
+        <v>0.02328016141526517</v>
       </c>
       <c r="D14">
-        <v>0.03937349150722657</v>
+        <v>-0.00692967727168883</v>
       </c>
       <c r="E14">
-        <v>-0.003956496297179259</v>
+        <v>0.02961950039050264</v>
       </c>
       <c r="F14">
-        <v>-0.01796201996343198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03443430444659584</v>
+      </c>
+      <c r="G14">
+        <v>-0.05555918510666637</v>
+      </c>
+      <c r="H14">
+        <v>0.01181137447367811</v>
+      </c>
+      <c r="I14">
+        <v>0.01787993386814419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05170317654898813</v>
+        <v>0.04349080117923679</v>
       </c>
       <c r="C16">
-        <v>-0.02298583582001449</v>
+        <v>0.03596442963169456</v>
       </c>
       <c r="D16">
-        <v>0.009886513615045667</v>
+        <v>-0.001174961513604513</v>
       </c>
       <c r="E16">
-        <v>0.001754511993733994</v>
+        <v>0.008352693592444775</v>
       </c>
       <c r="F16">
-        <v>-0.0338727772176816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0335663601031357</v>
+      </c>
+      <c r="G16">
+        <v>-0.005435379421528144</v>
+      </c>
+      <c r="H16">
+        <v>0.004952119008323587</v>
+      </c>
+      <c r="I16">
+        <v>0.02887162959820727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06859632603278439</v>
+        <v>0.05414937157340986</v>
       </c>
       <c r="C19">
-        <v>-0.04404741184969162</v>
+        <v>0.04790440022457612</v>
       </c>
       <c r="D19">
-        <v>0.03067143136684199</v>
+        <v>0.000602084894841827</v>
       </c>
       <c r="E19">
-        <v>-0.0001413173330751327</v>
+        <v>0.02365713271197852</v>
       </c>
       <c r="F19">
-        <v>-0.07694662924426295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.08876196670439919</v>
+      </c>
+      <c r="G19">
+        <v>-0.05906490352356501</v>
+      </c>
+      <c r="H19">
+        <v>0.01652094300343969</v>
+      </c>
+      <c r="I19">
+        <v>0.06780603364734519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03450594377533102</v>
+        <v>0.02029515139347932</v>
       </c>
       <c r="C20">
-        <v>-0.02874101905019479</v>
+        <v>0.03097131765107725</v>
       </c>
       <c r="D20">
-        <v>0.0450939512480834</v>
+        <v>-0.007050680344520282</v>
       </c>
       <c r="E20">
-        <v>-0.01730033108017757</v>
+        <v>0.02196417649687125</v>
       </c>
       <c r="F20">
-        <v>-0.06244575600789935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06263093788359395</v>
+      </c>
+      <c r="G20">
+        <v>-0.05739300006642519</v>
+      </c>
+      <c r="H20">
+        <v>0.007759359987580886</v>
+      </c>
+      <c r="I20">
+        <v>0.07668962388667012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0388040392553092</v>
+        <v>0.03388495554490481</v>
       </c>
       <c r="C21">
-        <v>-0.03738910332843877</v>
+        <v>0.0327548384359977</v>
       </c>
       <c r="D21">
-        <v>0.02224662955771312</v>
+        <v>-0.01313130974514956</v>
       </c>
       <c r="E21">
-        <v>0.006909661436837231</v>
+        <v>0.008224568384143096</v>
       </c>
       <c r="F21">
-        <v>-0.09702049697335707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07906671511031463</v>
+      </c>
+      <c r="G21">
+        <v>-0.0230377534445246</v>
+      </c>
+      <c r="H21">
+        <v>0.04763047589705766</v>
+      </c>
+      <c r="I21">
+        <v>0.003273399756581849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05054488416549635</v>
+        <v>0.0415094375573269</v>
       </c>
       <c r="C24">
-        <v>-0.02020852476917126</v>
+        <v>0.03117832657346511</v>
       </c>
       <c r="D24">
-        <v>0.01761352045732826</v>
+        <v>-0.001606359730010831</v>
       </c>
       <c r="E24">
-        <v>-0.003276470023919222</v>
+        <v>0.01124397536348684</v>
       </c>
       <c r="F24">
-        <v>-0.04364079993358769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03692520102830183</v>
+      </c>
+      <c r="G24">
+        <v>0.0001247170180075005</v>
+      </c>
+      <c r="H24">
+        <v>0.00788105573390328</v>
+      </c>
+      <c r="I24">
+        <v>0.02955016982751682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05297976264658769</v>
+        <v>0.04855819865641542</v>
       </c>
       <c r="C25">
-        <v>-0.01566999839956146</v>
+        <v>0.02824723476928203</v>
       </c>
       <c r="D25">
-        <v>0.01277147106978359</v>
+        <v>-0.0005917033049004192</v>
       </c>
       <c r="E25">
-        <v>-0.001273474399701111</v>
+        <v>0.009783121561164091</v>
       </c>
       <c r="F25">
-        <v>-0.0403176196162223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04239966693769003</v>
+      </c>
+      <c r="G25">
+        <v>-0.0005098018864830337</v>
+      </c>
+      <c r="H25">
+        <v>0.01387488365183495</v>
+      </c>
+      <c r="I25">
+        <v>0.02009238022221432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02860592852354864</v>
+        <v>0.0188915565306931</v>
       </c>
       <c r="C26">
-        <v>-0.03050880273085286</v>
+        <v>0.02990887710728499</v>
       </c>
       <c r="D26">
-        <v>0.02463479443442316</v>
+        <v>0.003111556870386868</v>
       </c>
       <c r="E26">
-        <v>0.01886661620958062</v>
+        <v>0.003893610657566907</v>
       </c>
       <c r="F26">
-        <v>-0.02921715449372056</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04182649473269661</v>
+      </c>
+      <c r="G26">
+        <v>-0.0328765624391443</v>
+      </c>
+      <c r="H26">
+        <v>0.01176080664784044</v>
+      </c>
+      <c r="I26">
+        <v>0.02348888646416397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1205763301167155</v>
+        <v>0.07194310429991588</v>
       </c>
       <c r="C27">
-        <v>-0.01727877101145497</v>
+        <v>0.02642294383233158</v>
       </c>
       <c r="D27">
-        <v>0.04166424656880088</v>
+        <v>-0.005678250802172652</v>
       </c>
       <c r="E27">
-        <v>-0.02546815142237959</v>
+        <v>0.03410670040946668</v>
       </c>
       <c r="F27">
-        <v>-0.07530100491555455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06415697407611129</v>
+      </c>
+      <c r="G27">
+        <v>-0.02140332259837804</v>
+      </c>
+      <c r="H27">
+        <v>0.02592109877685576</v>
+      </c>
+      <c r="I27">
+        <v>0.03782207996031132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02449296392900422</v>
+        <v>0.05114215418730328</v>
       </c>
       <c r="C28">
-        <v>0.2276417196456257</v>
+        <v>-0.2459260360436897</v>
       </c>
       <c r="D28">
-        <v>-0.1136388423902484</v>
+        <v>0.0150715497146969</v>
       </c>
       <c r="E28">
-        <v>0.03795399798285827</v>
+        <v>-0.05381155968609566</v>
       </c>
       <c r="F28">
-        <v>-0.05022891480391106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05922407681900354</v>
+      </c>
+      <c r="G28">
+        <v>-0.04028510247532537</v>
+      </c>
+      <c r="H28">
+        <v>0.04307107551699434</v>
+      </c>
+      <c r="I28">
+        <v>0.07254266205399976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.03255817791852686</v>
+        <v>0.02447605122659455</v>
       </c>
       <c r="C29">
-        <v>-0.01812681268198615</v>
+        <v>0.02130362143082191</v>
       </c>
       <c r="D29">
-        <v>0.03684810738468195</v>
+        <v>-0.01010099906409944</v>
       </c>
       <c r="E29">
-        <v>-0.01589462537040625</v>
+        <v>0.03061257887907534</v>
       </c>
       <c r="F29">
-        <v>-0.01778708128685503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0307890713770489</v>
+      </c>
+      <c r="G29">
+        <v>-0.05632567447032586</v>
+      </c>
+      <c r="H29">
+        <v>0.01554763638250943</v>
+      </c>
+      <c r="I29">
+        <v>0.004058002070692423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1151376484341266</v>
+        <v>0.08890713222823228</v>
       </c>
       <c r="C30">
-        <v>-0.01778918697584427</v>
+        <v>0.05332458030992658</v>
       </c>
       <c r="D30">
-        <v>0.04500162573187342</v>
+        <v>0.0351252796904868</v>
       </c>
       <c r="E30">
-        <v>0.007177491815576803</v>
+        <v>0.034653968398171</v>
       </c>
       <c r="F30">
-        <v>-0.1039266094159682</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1035054282823828</v>
+      </c>
+      <c r="G30">
+        <v>-0.0141154434796688</v>
+      </c>
+      <c r="H30">
+        <v>-0.007357081885373506</v>
+      </c>
+      <c r="I30">
+        <v>0.02435511232397846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.070090102327849</v>
+        <v>0.06136303506922363</v>
       </c>
       <c r="C31">
-        <v>-0.01276389277321402</v>
+        <v>0.02389976672696182</v>
       </c>
       <c r="D31">
-        <v>0.03021602158418713</v>
+        <v>0.008713992456776164</v>
       </c>
       <c r="E31">
-        <v>0.03189231348247262</v>
+        <v>0.02442307249237869</v>
       </c>
       <c r="F31">
-        <v>0.03809165679153792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.006146548633236986</v>
+      </c>
+      <c r="G31">
+        <v>-0.04854928068914592</v>
+      </c>
+      <c r="H31">
+        <v>0.03094317506774985</v>
+      </c>
+      <c r="I31">
+        <v>0.01309286545495602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07195002352484128</v>
+        <v>0.0429780422192228</v>
       </c>
       <c r="C32">
-        <v>-0.03451099588916685</v>
+        <v>0.04662321514595828</v>
       </c>
       <c r="D32">
-        <v>0.04199321711470171</v>
+        <v>-0.01774983330806596</v>
       </c>
       <c r="E32">
-        <v>-0.01432196486295866</v>
+        <v>0.03669164282362283</v>
       </c>
       <c r="F32">
-        <v>-0.08682841992825104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08144345915733088</v>
+      </c>
+      <c r="G32">
+        <v>-0.04067391662053609</v>
+      </c>
+      <c r="H32">
+        <v>0.02575282091952932</v>
+      </c>
+      <c r="I32">
+        <v>0.05091628127838491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.07117514896387281</v>
+        <v>0.05670935539736469</v>
       </c>
       <c r="C33">
-        <v>-0.05323905630877558</v>
+        <v>0.05800941820178264</v>
       </c>
       <c r="D33">
-        <v>0.04338029933897355</v>
+        <v>0.01616955274012299</v>
       </c>
       <c r="E33">
-        <v>0.01387797481094596</v>
+        <v>0.01498827038252151</v>
       </c>
       <c r="F33">
-        <v>-0.06322267223311753</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07193618571127268</v>
+      </c>
+      <c r="G33">
+        <v>-0.04298246860233088</v>
+      </c>
+      <c r="H33">
+        <v>0.03668209120531192</v>
+      </c>
+      <c r="I33">
+        <v>0.03061187220942976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05114067955452272</v>
+        <v>0.04315550912352966</v>
       </c>
       <c r="C34">
-        <v>-0.01823796272605645</v>
+        <v>0.03491978010926833</v>
       </c>
       <c r="D34">
-        <v>0.01866003586274208</v>
+        <v>-0.005871994332949861</v>
       </c>
       <c r="E34">
-        <v>-0.002510391525749946</v>
+        <v>0.01686477749737522</v>
       </c>
       <c r="F34">
-        <v>-0.02723497463858656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03255565927605107</v>
+      </c>
+      <c r="G34">
+        <v>-0.007993896765485198</v>
+      </c>
+      <c r="H34">
+        <v>0.008228283482607955</v>
+      </c>
+      <c r="I34">
+        <v>0.0243008320788382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01829732653139</v>
+        <v>0.01586515281273006</v>
       </c>
       <c r="C36">
-        <v>-0.002129109149179258</v>
+        <v>0.006257175048925033</v>
       </c>
       <c r="D36">
-        <v>0.01352186388595675</v>
+        <v>-0.004823193426532189</v>
       </c>
       <c r="E36">
-        <v>-0.005429289248654222</v>
+        <v>0.01078964050421394</v>
       </c>
       <c r="F36">
-        <v>-0.01402115512010421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02368969597382263</v>
+      </c>
+      <c r="G36">
+        <v>-0.0388111518574523</v>
+      </c>
+      <c r="H36">
+        <v>0.01796560614698398</v>
+      </c>
+      <c r="I36">
+        <v>-0.00806801428323984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04445686008258502</v>
+        <v>0.03587656151334228</v>
       </c>
       <c r="C38">
-        <v>-0.01172305501707747</v>
+        <v>0.0168245103829715</v>
       </c>
       <c r="D38">
-        <v>0.02172201098733174</v>
+        <v>-0.004742450232916326</v>
       </c>
       <c r="E38">
-        <v>-0.01914443506885655</v>
+        <v>0.01299355174845709</v>
       </c>
       <c r="F38">
-        <v>-0.01819340545898707</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04766685123462735</v>
+      </c>
+      <c r="G38">
+        <v>-0.02960186834756249</v>
+      </c>
+      <c r="H38">
+        <v>0.02386352429643993</v>
+      </c>
+      <c r="I38">
+        <v>-0.01020542085495632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07219053155609015</v>
+        <v>0.05449402730152592</v>
       </c>
       <c r="C39">
-        <v>-0.01951553557158024</v>
+        <v>0.04821005258690311</v>
       </c>
       <c r="D39">
-        <v>0.02600575163263513</v>
+        <v>0.003239485423896503</v>
       </c>
       <c r="E39">
-        <v>0.01425080505832654</v>
+        <v>0.02005768578586814</v>
       </c>
       <c r="F39">
-        <v>-0.03426867474298528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05435179341126123</v>
+      </c>
+      <c r="G39">
+        <v>0.002480153349049084</v>
+      </c>
+      <c r="H39">
+        <v>0.02202211389341585</v>
+      </c>
+      <c r="I39">
+        <v>0.007693791733906082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07604281266118902</v>
+        <v>0.05627088471132002</v>
       </c>
       <c r="C40">
-        <v>-0.01805771545195936</v>
+        <v>0.04444016346147073</v>
       </c>
       <c r="D40">
-        <v>0.06009874067848122</v>
+        <v>0.01925737573297328</v>
       </c>
       <c r="E40">
-        <v>0.03400964416716982</v>
+        <v>0.02689175272118588</v>
       </c>
       <c r="F40">
-        <v>-0.1050215687467065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09477146205159118</v>
+      </c>
+      <c r="G40">
+        <v>-0.03704710725795465</v>
+      </c>
+      <c r="H40">
+        <v>0.02784475983072196</v>
+      </c>
+      <c r="I40">
+        <v>0.107157223514674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004038263994778577</v>
+        <v>0.004687180830309459</v>
       </c>
       <c r="C41">
-        <v>-0.02295967423062763</v>
+        <v>0.01154152886737687</v>
       </c>
       <c r="D41">
-        <v>0.0314850750076994</v>
+        <v>-0.0002513344670327358</v>
       </c>
       <c r="E41">
-        <v>-0.006693006607752776</v>
+        <v>0.01112691277841358</v>
       </c>
       <c r="F41">
-        <v>0.009973583230832332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.009673465581297877</v>
+      </c>
+      <c r="G41">
+        <v>-0.04839550012886311</v>
+      </c>
+      <c r="H41">
+        <v>0.03485337119242209</v>
+      </c>
+      <c r="I41">
+        <v>0.01312208194794424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2031709397253703</v>
+        <v>0.2266186181898845</v>
       </c>
       <c r="C42">
-        <v>-0.5161271992187123</v>
+        <v>0.2646960378831937</v>
       </c>
       <c r="D42">
-        <v>-0.7602645231967867</v>
+        <v>0.03973054443438669</v>
       </c>
       <c r="E42">
-        <v>0.2539004498601767</v>
+        <v>-0.9061081517236265</v>
       </c>
       <c r="F42">
-        <v>0.04972061997463779</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1594506759464718</v>
+      </c>
+      <c r="G42">
+        <v>0.00203668572142878</v>
+      </c>
+      <c r="H42">
+        <v>-0.008460903560618157</v>
+      </c>
+      <c r="I42">
+        <v>0.05547435579166313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008057805458015901</v>
+        <v>0.008882597902698318</v>
       </c>
       <c r="C43">
-        <v>-0.02451375193702442</v>
+        <v>0.01438638763382698</v>
       </c>
       <c r="D43">
-        <v>0.03376387669691199</v>
+        <v>0.002477713882861117</v>
       </c>
       <c r="E43">
-        <v>-0.002078499530846079</v>
+        <v>0.01041520807985566</v>
       </c>
       <c r="F43">
-        <v>-0.020913210191332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02406978209384733</v>
+      </c>
+      <c r="G43">
+        <v>-0.03510042829792391</v>
+      </c>
+      <c r="H43">
+        <v>0.01991112132116262</v>
+      </c>
+      <c r="I43">
+        <v>0.02269778064946435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04740735712546485</v>
+        <v>0.03042899438429052</v>
       </c>
       <c r="C44">
-        <v>-0.04643637407482022</v>
+        <v>0.04383329679897956</v>
       </c>
       <c r="D44">
-        <v>0.04613942302606863</v>
+        <v>-0.003715803059444607</v>
       </c>
       <c r="E44">
-        <v>0.005535225013400317</v>
+        <v>0.01852129937679555</v>
       </c>
       <c r="F44">
-        <v>-0.1046179264735764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.115920977651137</v>
+      </c>
+      <c r="G44">
+        <v>-0.09022669012463687</v>
+      </c>
+      <c r="H44">
+        <v>0.04763343551844936</v>
+      </c>
+      <c r="I44">
+        <v>0.05434444151266268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03374163250120699</v>
+        <v>0.02680633693818096</v>
       </c>
       <c r="C46">
-        <v>-0.02170214452419179</v>
+        <v>0.03633885257024017</v>
       </c>
       <c r="D46">
-        <v>0.03977689124051647</v>
+        <v>0.002146082989755464</v>
       </c>
       <c r="E46">
-        <v>-0.0004486138231193171</v>
+        <v>0.03304491308609254</v>
       </c>
       <c r="F46">
-        <v>-0.01533231738203107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04278607095968757</v>
+      </c>
+      <c r="G46">
+        <v>-0.05956858368577416</v>
+      </c>
+      <c r="H46">
+        <v>0.01273123793234442</v>
+      </c>
+      <c r="I46">
+        <v>0.00940395383581227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09674790385051658</v>
+        <v>0.08701502682204063</v>
       </c>
       <c r="C47">
-        <v>-0.007197036438326204</v>
+        <v>0.01971267939372723</v>
       </c>
       <c r="D47">
-        <v>0.02898402264753034</v>
+        <v>0.003840722230628559</v>
       </c>
       <c r="E47">
-        <v>-0.002823741621761772</v>
+        <v>0.0294063862954341</v>
       </c>
       <c r="F47">
-        <v>0.03247467339502672</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01865145749324559</v>
+      </c>
+      <c r="G47">
+        <v>-0.06468136721336476</v>
+      </c>
+      <c r="H47">
+        <v>0.02389558984534659</v>
+      </c>
+      <c r="I47">
+        <v>0.03467837289045147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02204257359223358</v>
+        <v>0.0212599325419665</v>
       </c>
       <c r="C48">
-        <v>-0.01984108068818681</v>
+        <v>0.01816620693718173</v>
       </c>
       <c r="D48">
-        <v>0.02563481814149044</v>
+        <v>-0.001464263369927173</v>
       </c>
       <c r="E48">
-        <v>0.001332561862335393</v>
+        <v>0.01445862565067607</v>
       </c>
       <c r="F48">
-        <v>-0.01844584275032942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02554428431446885</v>
+      </c>
+      <c r="G48">
+        <v>-0.02850252004007735</v>
+      </c>
+      <c r="H48">
+        <v>0.01615581682173199</v>
+      </c>
+      <c r="I48">
+        <v>0.01011358744974973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09375143350737963</v>
+        <v>0.08853641259330955</v>
       </c>
       <c r="C50">
-        <v>-0.02724096205940675</v>
+        <v>0.03913672997783887</v>
       </c>
       <c r="D50">
-        <v>0.03342477100025382</v>
+        <v>-0.0117946255263486</v>
       </c>
       <c r="E50">
-        <v>0.006462550434975478</v>
+        <v>0.02696586515011783</v>
       </c>
       <c r="F50">
-        <v>0.03171963284330666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01153655558655871</v>
+      </c>
+      <c r="G50">
+        <v>-0.03858362073408894</v>
+      </c>
+      <c r="H50">
+        <v>-0.01230984618286467</v>
+      </c>
+      <c r="I50">
+        <v>-0.004131022246848481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05855121543500839</v>
+        <v>0.03998231690946627</v>
       </c>
       <c r="C51">
-        <v>0.01401247939684384</v>
+        <v>-0.002676917640855583</v>
       </c>
       <c r="D51">
-        <v>0.02263950241474762</v>
+        <v>0.01115796765684343</v>
       </c>
       <c r="E51">
-        <v>0.03395970239332718</v>
+        <v>0.01191334792496306</v>
       </c>
       <c r="F51">
-        <v>-0.06080994288356325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09113833105677456</v>
+      </c>
+      <c r="G51">
+        <v>-0.07109804252989158</v>
+      </c>
+      <c r="H51">
+        <v>0.04989398129590176</v>
+      </c>
+      <c r="I51">
+        <v>0.03119943407917995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1352781572900848</v>
+        <v>0.1241904724741725</v>
       </c>
       <c r="C53">
-        <v>-0.007130375227524723</v>
+        <v>0.03639732887702045</v>
       </c>
       <c r="D53">
-        <v>0.05676431885422102</v>
+        <v>0.004040682081020852</v>
       </c>
       <c r="E53">
-        <v>0.005108923839811045</v>
+        <v>0.05516367133780412</v>
       </c>
       <c r="F53">
-        <v>0.06393022425023283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0493706898556443</v>
+      </c>
+      <c r="G53">
+        <v>-0.01285130423073982</v>
+      </c>
+      <c r="H53">
+        <v>0.03065052234875397</v>
+      </c>
+      <c r="I53">
+        <v>0.04011908112514653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02928637904535147</v>
+        <v>0.02698647682792791</v>
       </c>
       <c r="C54">
-        <v>-0.003200293357354824</v>
+        <v>0.006827663754813856</v>
       </c>
       <c r="D54">
-        <v>0.03208392055168079</v>
+        <v>-0.004934000339252519</v>
       </c>
       <c r="E54">
-        <v>-0.006597520025548692</v>
+        <v>0.03065459890448653</v>
       </c>
       <c r="F54">
-        <v>-0.02002341034774208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02945973573924867</v>
+      </c>
+      <c r="G54">
+        <v>-0.05527877496366593</v>
+      </c>
+      <c r="H54">
+        <v>0.03086080636895297</v>
+      </c>
+      <c r="I54">
+        <v>0.003140492821410991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.106413478010591</v>
+        <v>0.09778619423860194</v>
       </c>
       <c r="C55">
-        <v>0.007822584656860219</v>
+        <v>0.03096639042857109</v>
       </c>
       <c r="D55">
-        <v>0.0291352816908604</v>
+        <v>-0.01397724076401635</v>
       </c>
       <c r="E55">
-        <v>-0.04162015716712924</v>
+        <v>0.03853056405199205</v>
       </c>
       <c r="F55">
-        <v>0.02302222987437531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.036977579716904</v>
+      </c>
+      <c r="G55">
+        <v>-0.01863102237701897</v>
+      </c>
+      <c r="H55">
+        <v>-0.01108902968220569</v>
+      </c>
+      <c r="I55">
+        <v>0.02253143089032145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.166438511082951</v>
+        <v>0.163187930175215</v>
       </c>
       <c r="C56">
-        <v>0.04861991653892032</v>
+        <v>0.0168327698390391</v>
       </c>
       <c r="D56">
-        <v>0.07448632153088425</v>
+        <v>0.000593873521284816</v>
       </c>
       <c r="E56">
-        <v>-0.02905275643028261</v>
+        <v>0.08696878505674405</v>
       </c>
       <c r="F56">
-        <v>0.1041842330105849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09408156911627162</v>
+      </c>
+      <c r="G56">
+        <v>0.03751631961040174</v>
+      </c>
+      <c r="H56">
+        <v>-0.006054003713627842</v>
+      </c>
+      <c r="I56">
+        <v>0.04457896967541025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08573962480718354</v>
+        <v>0.06654555863753543</v>
       </c>
       <c r="C57">
-        <v>-0.02167734221360464</v>
+        <v>0.03289837606044365</v>
       </c>
       <c r="D57">
-        <v>0.0323327301076895</v>
+        <v>0.01920373548235418</v>
       </c>
       <c r="E57">
-        <v>0.03075094592363213</v>
+        <v>0.005101655779369611</v>
       </c>
       <c r="F57">
-        <v>-0.04108868604794257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06636698225252462</v>
+      </c>
+      <c r="G57">
+        <v>-0.02443239718366742</v>
+      </c>
+      <c r="H57">
+        <v>0.01787063798191964</v>
+      </c>
+      <c r="I57">
+        <v>0.0269092345621578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2010499587081464</v>
+        <v>0.2103533167048328</v>
       </c>
       <c r="C58">
-        <v>-0.04955295765586658</v>
+        <v>0.1058918630570435</v>
       </c>
       <c r="D58">
-        <v>0.05488923486026591</v>
+        <v>0.08836258555242996</v>
       </c>
       <c r="E58">
-        <v>0.04845783637709306</v>
+        <v>-0.01111343020877885</v>
       </c>
       <c r="F58">
-        <v>-0.1230478281710576</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2711639796680152</v>
+      </c>
+      <c r="G58">
+        <v>-0.3597430184199906</v>
+      </c>
+      <c r="H58">
+        <v>-0.3625520760436073</v>
+      </c>
+      <c r="I58">
+        <v>-0.6917474070973858</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02367442659876005</v>
+        <v>0.04992544864266491</v>
       </c>
       <c r="C59">
-        <v>0.1872440055517465</v>
+        <v>-0.2011849403544225</v>
       </c>
       <c r="D59">
-        <v>-0.06759490308002826</v>
+        <v>0.02701835901946637</v>
       </c>
       <c r="E59">
-        <v>0.02638162127657475</v>
+        <v>-0.01873498651161992</v>
       </c>
       <c r="F59">
-        <v>-0.05247652003752735</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.07093582882225281</v>
+      </c>
+      <c r="G59">
+        <v>0.002575265980292325</v>
+      </c>
+      <c r="H59">
+        <v>0.01730172738014299</v>
+      </c>
+      <c r="I59">
+        <v>0.01567546282408838</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1801894227027611</v>
+        <v>0.1912019513689469</v>
       </c>
       <c r="C60">
-        <v>0.08057650588910265</v>
+        <v>-0.04943619561309087</v>
       </c>
       <c r="D60">
-        <v>0.01544716640063748</v>
+        <v>0.0517347652495214</v>
       </c>
       <c r="E60">
-        <v>0.07443890145271932</v>
+        <v>0.0105575816671119</v>
       </c>
       <c r="F60">
-        <v>-0.1853533942799962</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.2032849643931487</v>
+      </c>
+      <c r="G60">
+        <v>0.3187563284917915</v>
+      </c>
+      <c r="H60">
+        <v>0.03653473426577835</v>
+      </c>
+      <c r="I60">
+        <v>-0.03044795861985687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0442395630798461</v>
+        <v>0.03943107412564868</v>
       </c>
       <c r="C61">
-        <v>-0.01401448294230672</v>
+        <v>0.03302119442470368</v>
       </c>
       <c r="D61">
-        <v>0.01427114472206242</v>
+        <v>-0.002841832108347024</v>
       </c>
       <c r="E61">
-        <v>-0.004032360037332645</v>
+        <v>0.01119613070542091</v>
       </c>
       <c r="F61">
-        <v>-0.03073809878475652</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03546319028290278</v>
+      </c>
+      <c r="G61">
+        <v>0.00508130145921806</v>
+      </c>
+      <c r="H61">
+        <v>0.01261472540066234</v>
+      </c>
+      <c r="I61">
+        <v>-0.003727492521774743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04237370598245984</v>
+        <v>0.03125789453155488</v>
       </c>
       <c r="C63">
-        <v>-0.01097469830716843</v>
+        <v>0.02399305994579638</v>
       </c>
       <c r="D63">
-        <v>0.02558521284193428</v>
+        <v>0.0008955737232258345</v>
       </c>
       <c r="E63">
-        <v>0.008104370800865134</v>
+        <v>0.01524785116546672</v>
       </c>
       <c r="F63">
-        <v>-0.03156084852630769</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02746060493644023</v>
+      </c>
+      <c r="G63">
+        <v>-0.05098929729236283</v>
+      </c>
+      <c r="H63">
+        <v>0.002774258437457734</v>
+      </c>
+      <c r="I63">
+        <v>0.03503625602212097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06313519552814584</v>
+        <v>0.05636687536901759</v>
       </c>
       <c r="C64">
-        <v>-0.02447337382256902</v>
+        <v>0.03332253917087194</v>
       </c>
       <c r="D64">
-        <v>0.02911940521762009</v>
+        <v>-0.01195862530465016</v>
       </c>
       <c r="E64">
-        <v>-0.02903602536055045</v>
+        <v>0.02113564369891086</v>
       </c>
       <c r="F64">
-        <v>-0.03016988428898867</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03784571828364306</v>
+      </c>
+      <c r="G64">
+        <v>-0.03064281454986155</v>
+      </c>
+      <c r="H64">
+        <v>0.05455019558999088</v>
+      </c>
+      <c r="I64">
+        <v>0.03681884178634887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02369038937746594</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01067140486905678</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005810148869771208</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006710376915157227</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.005022884889602151</v>
+      </c>
+      <c r="G65">
+        <v>0.01921017875345114</v>
+      </c>
+      <c r="H65">
+        <v>-0.01684157797898549</v>
+      </c>
+      <c r="I65">
+        <v>-0.00313679976007492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0795746743990018</v>
+        <v>0.06782028560909077</v>
       </c>
       <c r="C66">
-        <v>-0.02677579162621515</v>
+        <v>0.05687726482639651</v>
       </c>
       <c r="D66">
-        <v>0.05299458695695292</v>
+        <v>0.009999774093993221</v>
       </c>
       <c r="E66">
-        <v>-0.0001273922777452462</v>
+        <v>0.04856271647945518</v>
       </c>
       <c r="F66">
-        <v>-0.06948640696830159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06614356346391673</v>
+      </c>
+      <c r="G66">
+        <v>0.007357550158446751</v>
+      </c>
+      <c r="H66">
+        <v>0.01100594940535203</v>
+      </c>
+      <c r="I66">
+        <v>0.04195888122676791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05483667200227199</v>
+        <v>0.04825505668977855</v>
       </c>
       <c r="C67">
-        <v>0.01082554467400729</v>
+        <v>-0.001465398397388683</v>
       </c>
       <c r="D67">
-        <v>0.005461416598201098</v>
+        <v>0.001664100853107514</v>
       </c>
       <c r="E67">
-        <v>-0.006572824799624605</v>
+        <v>0.01041420883312271</v>
       </c>
       <c r="F67">
-        <v>-0.01628696805071938</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03639608077836018</v>
+      </c>
+      <c r="G67">
+        <v>-0.01218462915367954</v>
+      </c>
+      <c r="H67">
+        <v>0.03616466238966536</v>
+      </c>
+      <c r="I67">
+        <v>-0.02447350801753932</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.03959475591174001</v>
+        <v>0.05992179229670174</v>
       </c>
       <c r="C68">
-        <v>0.2199470213489947</v>
+        <v>-0.2368844207138305</v>
       </c>
       <c r="D68">
-        <v>-0.1041664579974635</v>
+        <v>0.02846726363097057</v>
       </c>
       <c r="E68">
-        <v>0.03593658605139399</v>
+        <v>-0.04102969631792608</v>
       </c>
       <c r="F68">
-        <v>-0.04921371728804591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0520205525995201</v>
+      </c>
+      <c r="G68">
+        <v>-0.0209153228689393</v>
+      </c>
+      <c r="H68">
+        <v>-0.003448074739381387</v>
+      </c>
+      <c r="I68">
+        <v>0.03606911069239312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0805460637450618</v>
+        <v>0.07277330998908997</v>
       </c>
       <c r="C69">
-        <v>0.0005707529240247074</v>
+        <v>0.01999517000608102</v>
       </c>
       <c r="D69">
-        <v>0.02782652776207479</v>
+        <v>0.005325123776604617</v>
       </c>
       <c r="E69">
-        <v>0.000286770309428162</v>
+        <v>0.03168884618127227</v>
       </c>
       <c r="F69">
-        <v>0.01926852947327687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005292691096232042</v>
+      </c>
+      <c r="G69">
+        <v>-0.03842859071206202</v>
+      </c>
+      <c r="H69">
+        <v>0.02035708221795996</v>
+      </c>
+      <c r="I69">
+        <v>0.01722971241085662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.03688389042000251</v>
+        <v>0.05662864383913439</v>
       </c>
       <c r="C71">
-        <v>0.262618362015225</v>
+        <v>-0.2573849574278347</v>
       </c>
       <c r="D71">
-        <v>-0.1216876391733381</v>
+        <v>0.03359006896005263</v>
       </c>
       <c r="E71">
-        <v>0.07803947496605516</v>
+        <v>-0.06640704268390074</v>
       </c>
       <c r="F71">
-        <v>-0.08346525145532172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07291208386568979</v>
+      </c>
+      <c r="G71">
+        <v>-0.02635984642952833</v>
+      </c>
+      <c r="H71">
+        <v>0.02156882491098066</v>
+      </c>
+      <c r="I71">
+        <v>0.04576980247692289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1266090793771595</v>
+        <v>0.1236383059222523</v>
       </c>
       <c r="C72">
-        <v>0.0335642600884653</v>
+        <v>0.03602099737575724</v>
       </c>
       <c r="D72">
-        <v>0.05113886776751145</v>
+        <v>0.006920333326100541</v>
       </c>
       <c r="E72">
-        <v>-0.003410613271766112</v>
+        <v>0.07488632633016078</v>
       </c>
       <c r="F72">
-        <v>-0.06884389794278828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.08179788954123982</v>
+      </c>
+      <c r="G72">
+        <v>0.03081789894889752</v>
+      </c>
+      <c r="H72">
+        <v>-0.04725104714447159</v>
+      </c>
+      <c r="I72">
+        <v>-0.1171991451030926</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2770938506235744</v>
+        <v>0.272385082008652</v>
       </c>
       <c r="C73">
-        <v>0.146194684331779</v>
+        <v>-0.06832633218397172</v>
       </c>
       <c r="D73">
-        <v>-0.04034416783697149</v>
+        <v>0.09047292476180112</v>
       </c>
       <c r="E73">
-        <v>0.111509323301444</v>
+        <v>-0.03508130075272053</v>
       </c>
       <c r="F73">
-        <v>-0.3529879963528654</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.3140500693357708</v>
+      </c>
+      <c r="G73">
+        <v>0.5371316303103428</v>
+      </c>
+      <c r="H73">
+        <v>-0.01736576207734051</v>
+      </c>
+      <c r="I73">
+        <v>-0.1079290304711884</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1538919250772021</v>
+        <v>0.1495179611396978</v>
       </c>
       <c r="C74">
-        <v>0.0008255059255317277</v>
+        <v>0.03690695551601984</v>
       </c>
       <c r="D74">
-        <v>0.05278679098552507</v>
+        <v>0.01133700905438946</v>
       </c>
       <c r="E74">
-        <v>0.004994372775329135</v>
+        <v>0.05422556955060091</v>
       </c>
       <c r="F74">
-        <v>0.04798085842283149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06670991553881146</v>
+      </c>
+      <c r="G74">
+        <v>0.0271460669381277</v>
+      </c>
+      <c r="H74">
+        <v>-0.008824735488416341</v>
+      </c>
+      <c r="I74">
+        <v>0.07428373762076317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2241094824370233</v>
+        <v>0.2460462014160036</v>
       </c>
       <c r="C75">
-        <v>0.03591560095243748</v>
+        <v>0.02006887459039847</v>
       </c>
       <c r="D75">
-        <v>0.08551179963224519</v>
+        <v>0.0274065504051047</v>
       </c>
       <c r="E75">
-        <v>0.005171008482991567</v>
+        <v>0.1151414817210723</v>
       </c>
       <c r="F75">
-        <v>0.1428600586616242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1472378597790234</v>
+      </c>
+      <c r="G75">
+        <v>0.01615216619222101</v>
+      </c>
+      <c r="H75">
+        <v>0.01561931682833456</v>
+      </c>
+      <c r="I75">
+        <v>0.0439402973084467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2475385805378701</v>
+        <v>0.2622745826757331</v>
       </c>
       <c r="C76">
-        <v>0.07438997375530369</v>
+        <v>0.007392835932078322</v>
       </c>
       <c r="D76">
-        <v>0.0807289642532546</v>
+        <v>-0.01179759380203117</v>
       </c>
       <c r="E76">
-        <v>-0.06436781614614981</v>
+        <v>0.1390258835011353</v>
       </c>
       <c r="F76">
-        <v>0.1354608244604934</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1841893427124496</v>
+      </c>
+      <c r="G76">
+        <v>0.04270585595392407</v>
+      </c>
+      <c r="H76">
+        <v>-0.05955982880807742</v>
+      </c>
+      <c r="I76">
+        <v>0.05728484354422927</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1380657422234901</v>
+        <v>0.1196218454046292</v>
       </c>
       <c r="C77">
-        <v>-0.0639329569190657</v>
+        <v>0.074671030437646</v>
       </c>
       <c r="D77">
-        <v>0.01420881768423634</v>
+        <v>0.004555132129537639</v>
       </c>
       <c r="E77">
-        <v>0.01379666029995681</v>
+        <v>-0.03247156512405202</v>
       </c>
       <c r="F77">
-        <v>-0.149309119202087</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1584894420882406</v>
+      </c>
+      <c r="G77">
+        <v>-0.2103435093525798</v>
+      </c>
+      <c r="H77">
+        <v>-0.03420316208874911</v>
+      </c>
+      <c r="I77">
+        <v>0.2408013966427562</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09607499579743294</v>
+        <v>0.0733109004394735</v>
       </c>
       <c r="C78">
-        <v>-0.07600218217254864</v>
+        <v>0.0762321415610987</v>
       </c>
       <c r="D78">
-        <v>0.0217880252536884</v>
+        <v>-0.008012947532291061</v>
       </c>
       <c r="E78">
-        <v>-0.009227888107438378</v>
+        <v>0.008844980430738097</v>
       </c>
       <c r="F78">
-        <v>-0.04836372027436049</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06642432274277786</v>
+      </c>
+      <c r="G78">
+        <v>-0.01764301074968821</v>
+      </c>
+      <c r="H78">
+        <v>0.01790554001496375</v>
+      </c>
+      <c r="I78">
+        <v>0.04522684650176402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1026359449065553</v>
+        <v>0.1371133242048497</v>
       </c>
       <c r="C80">
-        <v>-0.01406363121193829</v>
+        <v>-0.08679761061977</v>
       </c>
       <c r="D80">
-        <v>-0.2945016441149195</v>
+        <v>-0.9725974694851365</v>
       </c>
       <c r="E80">
-        <v>-0.9225447211328976</v>
+        <v>-0.05377676063690345</v>
       </c>
       <c r="F80">
-        <v>-0.09227894654811719</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04620236661097246</v>
+      </c>
+      <c r="G80">
+        <v>0.02922666798761527</v>
+      </c>
+      <c r="H80">
+        <v>0.03669248156048665</v>
+      </c>
+      <c r="I80">
+        <v>-0.09698673225665308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1568422079865427</v>
+        <v>0.1807476476316807</v>
       </c>
       <c r="C81">
-        <v>0.02556713456194193</v>
+        <v>0.006616711151335771</v>
       </c>
       <c r="D81">
-        <v>0.0465376201914013</v>
+        <v>0.006821320640209759</v>
       </c>
       <c r="E81">
-        <v>-0.01278663742981793</v>
+        <v>0.08681965227518033</v>
       </c>
       <c r="F81">
-        <v>0.1786569022465932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1609605224717784</v>
+      </c>
+      <c r="G81">
+        <v>-0.001528768395432077</v>
+      </c>
+      <c r="H81">
+        <v>-0.02731687656290442</v>
+      </c>
+      <c r="I81">
+        <v>0.01346759058402076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09462833296709854</v>
+        <v>0.07058027051327631</v>
       </c>
       <c r="C83">
-        <v>-0.09038309814786691</v>
+        <v>0.05914355033628551</v>
       </c>
       <c r="D83">
-        <v>-0.009994486093980071</v>
+        <v>0.01148970805896618</v>
       </c>
       <c r="E83">
-        <v>0.03812147415398816</v>
+        <v>-0.0329495513782633</v>
       </c>
       <c r="F83">
-        <v>-0.01210984975045766</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04394799356991103</v>
+      </c>
+      <c r="G83">
+        <v>-0.05119354842894759</v>
+      </c>
+      <c r="H83">
+        <v>0.0655424103512946</v>
+      </c>
+      <c r="I83">
+        <v>0.05220296702379053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.234964771407309</v>
+        <v>0.2490804100805899</v>
       </c>
       <c r="C85">
-        <v>-0.0002909884083260733</v>
+        <v>0.04982249010432861</v>
       </c>
       <c r="D85">
-        <v>0.07667410055026434</v>
+        <v>0.005770620795163508</v>
       </c>
       <c r="E85">
-        <v>-0.05767929076110492</v>
+        <v>0.1119080882078682</v>
       </c>
       <c r="F85">
-        <v>0.1559709007121691</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1855751919706211</v>
+      </c>
+      <c r="G85">
+        <v>-0.006238519326943645</v>
+      </c>
+      <c r="H85">
+        <v>-0.02371020965637597</v>
+      </c>
+      <c r="I85">
+        <v>0.07405411472793516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0422949239537534</v>
+        <v>0.02856559541211275</v>
       </c>
       <c r="C86">
-        <v>-0.04492584760957097</v>
+        <v>0.0545468920761638</v>
       </c>
       <c r="D86">
-        <v>0.03948451344572587</v>
+        <v>-9.260191477189767e-05</v>
       </c>
       <c r="E86">
-        <v>0.006247377841838098</v>
+        <v>0.01799581587443029</v>
       </c>
       <c r="F86">
-        <v>-0.06347421337033424</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.07862243205290832</v>
+      </c>
+      <c r="G86">
+        <v>-0.06429743665748593</v>
+      </c>
+      <c r="H86">
+        <v>0.003426455943198308</v>
+      </c>
+      <c r="I86">
+        <v>0.05653497114862383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02048219741858629</v>
+        <v>0.02982930093886403</v>
       </c>
       <c r="C87">
-        <v>0.0346200404318056</v>
+        <v>-0.001982924998880928</v>
       </c>
       <c r="D87">
-        <v>-0.01619338256078673</v>
+        <v>-0.003997637173549448</v>
       </c>
       <c r="E87">
-        <v>0.006928781980954362</v>
+        <v>-0.00192792886554311</v>
       </c>
       <c r="F87">
-        <v>-0.08897297500048526</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.0963882529997777</v>
+      </c>
+      <c r="G87">
+        <v>-0.02505062961361042</v>
+      </c>
+      <c r="H87">
+        <v>-0.01550269163315149</v>
+      </c>
+      <c r="I87">
+        <v>0.02899342233973328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03211291801585768</v>
+        <v>0.03654692213215596</v>
       </c>
       <c r="C88">
-        <v>-0.02043897193505638</v>
+        <v>0.009625517335135406</v>
       </c>
       <c r="D88">
-        <v>0.01460526171642005</v>
+        <v>-0.006110130223383099</v>
       </c>
       <c r="E88">
-        <v>-0.02298297165913848</v>
+        <v>0.006735773592499531</v>
       </c>
       <c r="F88">
-        <v>0.02380332791312963</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01851520082960136</v>
+      </c>
+      <c r="G88">
+        <v>-0.02449020308117067</v>
+      </c>
+      <c r="H88">
+        <v>0.04366523160368851</v>
+      </c>
+      <c r="I88">
+        <v>0.005810933571924829</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.04576553378954087</v>
+        <v>0.08815302991329486</v>
       </c>
       <c r="C89">
-        <v>0.3242091779767748</v>
+        <v>-0.3839931737197617</v>
       </c>
       <c r="D89">
-        <v>-0.2053836600777794</v>
+        <v>0.06318169326703052</v>
       </c>
       <c r="E89">
-        <v>0.08740931898655675</v>
+        <v>-0.07632691374418778</v>
       </c>
       <c r="F89">
-        <v>-0.006224196218726485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03691683010399569</v>
+      </c>
+      <c r="G89">
+        <v>-0.1074678565922953</v>
+      </c>
+      <c r="H89">
+        <v>0.04052785568747861</v>
+      </c>
+      <c r="I89">
+        <v>0.08876461785195779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.03497909408663304</v>
+        <v>0.05680224192032396</v>
       </c>
       <c r="C90">
-        <v>0.2738364337979619</v>
+        <v>-0.3289699627673325</v>
       </c>
       <c r="D90">
-        <v>-0.164194034133302</v>
+        <v>0.03679905439049808</v>
       </c>
       <c r="E90">
-        <v>0.02712325182448574</v>
+        <v>-0.0702245494123637</v>
       </c>
       <c r="F90">
-        <v>-0.06961089228084001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0427853130242694</v>
+      </c>
+      <c r="G90">
+        <v>-0.0524941525455665</v>
+      </c>
+      <c r="H90">
+        <v>0.0114020926267244</v>
+      </c>
+      <c r="I90">
+        <v>0.06114804534423762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2677594046132154</v>
+        <v>0.2854994479462268</v>
       </c>
       <c r="C91">
-        <v>-0.000589730148084569</v>
+        <v>0.05037739778852462</v>
       </c>
       <c r="D91">
-        <v>0.07712170924004581</v>
+        <v>0.01529999337025278</v>
       </c>
       <c r="E91">
-        <v>-0.04161772578163279</v>
+        <v>0.1061394811489027</v>
       </c>
       <c r="F91">
-        <v>0.2669102931216722</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2705417096902141</v>
+      </c>
+      <c r="G91">
+        <v>0.01246056197639331</v>
+      </c>
+      <c r="H91">
+        <v>-0.04818673767575454</v>
+      </c>
+      <c r="I91">
+        <v>0.06022811971589977</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06735032509699457</v>
+        <v>0.1263834215103339</v>
       </c>
       <c r="C92">
-        <v>0.2899306539758656</v>
+        <v>-0.376271184887536</v>
       </c>
       <c r="D92">
-        <v>-0.240343484671474</v>
+        <v>0.02457772700289916</v>
       </c>
       <c r="E92">
-        <v>0.008437515888798966</v>
+        <v>-0.09242713855314871</v>
       </c>
       <c r="F92">
-        <v>0.1052749629630619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1204231628692659</v>
+      </c>
+      <c r="G92">
+        <v>-0.3193897106818482</v>
+      </c>
+      <c r="H92">
+        <v>-0.05628007974999048</v>
+      </c>
+      <c r="I92">
+        <v>-0.1026399444628001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.03125431967464835</v>
+        <v>0.07445616890131737</v>
       </c>
       <c r="C93">
-        <v>0.3232901885586309</v>
+        <v>-0.394179726757071</v>
       </c>
       <c r="D93">
-        <v>-0.2141722425367923</v>
+        <v>0.05539975689962644</v>
       </c>
       <c r="E93">
-        <v>0.04761786645479282</v>
+        <v>-0.1117221757622237</v>
       </c>
       <c r="F93">
-        <v>0.007652175860827804</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.004320039804644646</v>
+      </c>
+      <c r="G93">
+        <v>-0.02988692938978343</v>
+      </c>
+      <c r="H93">
+        <v>0.0528998413866988</v>
+      </c>
+      <c r="I93">
+        <v>0.003983197984209551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2778679536542536</v>
+        <v>0.3108747200971981</v>
       </c>
       <c r="C94">
-        <v>0.1198493695656633</v>
+        <v>-0.04373525175675772</v>
       </c>
       <c r="D94">
-        <v>-0.00156421049563148</v>
+        <v>0.04514128715362845</v>
       </c>
       <c r="E94">
-        <v>-0.01470149973854389</v>
+        <v>0.1166505465409542</v>
       </c>
       <c r="F94">
-        <v>0.3288453551121566</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3139763750995161</v>
+      </c>
+      <c r="G94">
+        <v>-0.04660653355794274</v>
+      </c>
+      <c r="H94">
+        <v>-0.2175464634394479</v>
+      </c>
+      <c r="I94">
+        <v>0.01348331636678941</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1713112133073778</v>
+        <v>0.1315380681906522</v>
       </c>
       <c r="C95">
-        <v>-0.05174598664316391</v>
+        <v>0.05586597141093222</v>
       </c>
       <c r="D95">
-        <v>0.0178213976383745</v>
+        <v>0.08103597165561802</v>
       </c>
       <c r="E95">
-        <v>0.07442360565229558</v>
+        <v>0.03041865463556062</v>
       </c>
       <c r="F95">
-        <v>0.4157915679400435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1138520559491002</v>
+      </c>
+      <c r="G95">
+        <v>-0.1212946177744899</v>
+      </c>
+      <c r="H95">
+        <v>0.8652762282669515</v>
+      </c>
+      <c r="I95">
+        <v>-0.3595904547233307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2054155295248516</v>
+        <v>0.2075557534215331</v>
       </c>
       <c r="C98">
-        <v>0.09083277548349918</v>
+        <v>-0.06210309575386239</v>
       </c>
       <c r="D98">
-        <v>-0.02783529666835449</v>
+        <v>0.06549039587279419</v>
       </c>
       <c r="E98">
-        <v>0.08671953209315283</v>
+        <v>-0.02775608107714319</v>
       </c>
       <c r="F98">
-        <v>-0.09884426710381608</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1721022686289307</v>
+      </c>
+      <c r="G98">
+        <v>0.3427685230779481</v>
+      </c>
+      <c r="H98">
+        <v>0.02345568721457622</v>
+      </c>
+      <c r="I98">
+        <v>-0.1100605580172815</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.03250595645194721</v>
+        <v>0.01877497484939285</v>
       </c>
       <c r="C101">
-        <v>-0.01739305559268181</v>
+        <v>0.03230623080670113</v>
       </c>
       <c r="D101">
-        <v>0.03773296208153572</v>
+        <v>-0.006207762596573142</v>
       </c>
       <c r="E101">
-        <v>-0.01632519000258598</v>
+        <v>0.03830050816182241</v>
       </c>
       <c r="F101">
-        <v>-0.01861260782173587</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06179870394455253</v>
+      </c>
+      <c r="G101">
+        <v>-0.1112545186653234</v>
+      </c>
+      <c r="H101">
+        <v>-0.02990554838693654</v>
+      </c>
+      <c r="I101">
+        <v>-0.1142140378303993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1011558930672411</v>
+        <v>0.1169874588865332</v>
       </c>
       <c r="C102">
-        <v>-0.01099801060149958</v>
+        <v>0.02574117942482127</v>
       </c>
       <c r="D102">
-        <v>0.04937934070611331</v>
+        <v>-0.005626342438425567</v>
       </c>
       <c r="E102">
-        <v>-0.04105827863182998</v>
+        <v>0.0537915541257389</v>
       </c>
       <c r="F102">
-        <v>0.09946792299208955</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1161704113992314</v>
+      </c>
+      <c r="G102">
+        <v>-0.0003581373182393959</v>
+      </c>
+      <c r="H102">
+        <v>-0.002697377893174135</v>
+      </c>
+      <c r="I102">
+        <v>0.05528524013453326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.0196406288145104</v>
+        <v>0.02868626213880947</v>
       </c>
       <c r="C103">
-        <v>-0.00381507652479591</v>
+        <v>0.007402395446419102</v>
       </c>
       <c r="D103">
-        <v>0.01504425699105273</v>
+        <v>-0.009174790908100758</v>
       </c>
       <c r="E103">
-        <v>-0.006365102485863058</v>
+        <v>0.01868606964127122</v>
       </c>
       <c r="F103">
-        <v>0.03590503877934631</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02746994657737712</v>
+      </c>
+      <c r="G103">
+        <v>-0.01802894721935336</v>
+      </c>
+      <c r="H103">
+        <v>0.00728229464001155</v>
+      </c>
+      <c r="I103">
+        <v>0.01229994733489399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
